--- a/Kosztorys.xlsx
+++ b/Kosztorys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\Speaker\Speaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8AD39F-EB66-48EF-9652-25FAB3A7C66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E3A5AF-F085-4688-82C9-EF6C2B8BCBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Głośniki</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Zasilanie</t>
+  </si>
+  <si>
+    <t>Green Cell AGM VRLA 12V 7Ah</t>
+  </si>
+  <si>
+    <t>Akumulator</t>
+  </si>
+  <si>
+    <t>Obudowa</t>
   </si>
 </sst>
 </file>
@@ -132,15 +141,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,7 +436,7 @@
   <dimension ref="B1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,13 +445,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
       <c r="G1" t="s">
         <v>3</v>
       </c>
@@ -457,39 +466,39 @@
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>27</v>
       </c>
       <c r="I3">
@@ -499,30 +508,30 @@
         <f>H3*I3</f>
         <v>54</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>200</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
         <f>SUM(J:J)</f>
-        <v>90</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>18</v>
       </c>
       <c r="I4">
@@ -532,163 +541,163 @@
         <f t="shared" ref="J4:J27" si="0">H4*I4</f>
         <v>36</v>
       </c>
-      <c r="N4" s="4" t="str">
+      <c r="N4" s="5" t="str">
         <f>IF(N3&lt;Q3,"DROGO KURWA","CENA PRYMA SORT")</f>
         <v>CENA PRYMA SORT</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
       <c r="J5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="J6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
       <c r="J7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
       <c r="J9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="3"/>
+      <c r="H10" s="2"/>
       <c r="J10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H11" s="3"/>
+      <c r="H11" s="2"/>
       <c r="J11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H12" s="3"/>
+      <c r="H12" s="2"/>
       <c r="J12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
       <c r="J13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H14" s="3"/>
+      <c r="H14" s="2"/>
       <c r="J14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H15" s="3"/>
+      <c r="H15" s="2"/>
       <c r="J15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H16" s="3"/>
+      <c r="H16" s="2"/>
       <c r="J16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H17" s="3"/>
+      <c r="H17" s="2"/>
       <c r="J17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="3"/>
+      <c r="H18" s="2"/>
       <c r="J18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="3"/>
+      <c r="H19" s="2"/>
       <c r="J19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="3"/>
+      <c r="H20" s="2"/>
       <c r="J20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H21" s="3"/>
+      <c r="H21" s="2"/>
       <c r="J21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -701,25 +710,41 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>63</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -729,6 +754,15 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="J26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -741,17 +775,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="N4:S8"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="N4:S8"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Kosztorys.xlsx
+++ b/Kosztorys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\Speaker\Speaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E3A5AF-F085-4688-82C9-EF6C2B8BCBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F084154-635C-40C6-BE76-0BC5962F8A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Głośniki</t>
   </si>
@@ -79,13 +79,19 @@
     <t>Zasilanie</t>
   </si>
   <si>
-    <t>Green Cell AGM VRLA 12V 7Ah</t>
-  </si>
-  <si>
     <t>Akumulator</t>
   </si>
   <si>
     <t>Obudowa</t>
+  </si>
+  <si>
+    <t>Green Cell AGM VRLA 12V 4Ah</t>
+  </si>
+  <si>
+    <t>TPA3116D wzmacniacz mocy audio 100W 12V-24V</t>
+  </si>
+  <si>
+    <t>Połączony z wysokotonowym filtrem RC</t>
   </si>
 </sst>
 </file>
@@ -146,10 +152,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -436,7 +442,7 @@
   <dimension ref="B1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:I26"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,23 +508,28 @@
         <v>27</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f>H3*I3</f>
-        <v>54</v>
-      </c>
-      <c r="N3" s="4">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="5">
         <v>200</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5">
         <f>SUM(J:J)</f>
-        <v>153</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+        <v>175.14</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -535,21 +546,21 @@
         <v>18</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J27" si="0">H4*I4</f>
-        <v>36</v>
-      </c>
-      <c r="N4" s="5" t="str">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4" t="str">
         <f>IF(N3&lt;Q3,"DROGO KURWA","CENA PRYMA SORT")</f>
         <v>CENA PRYMA SORT</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H5" s="2"/>
@@ -557,12 +568,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
@@ -570,12 +581,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
@@ -583,12 +594,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
@@ -605,18 +616,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="2">
+        <v>80.14</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80.14</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
@@ -727,24 +750,24 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -755,7 +778,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -775,19 +798,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="N4:S8"/>
-    <mergeCell ref="B2:J2"/>
+  <mergeCells count="14">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="N4:S8"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
